--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\Github\1AB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\Github\1AB\1AB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31415E1-0A6B-4430-9CD6-08E47B7FD71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCA0849-8D95-4177-8758-69C1CE4C95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -23,23 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
   <si>
     <t>Alumnos 1º AB</t>
   </si>
@@ -180,6 +169,9 @@
   </si>
   <si>
     <t>T14</t>
+  </si>
+  <si>
+    <t>Alumnos</t>
   </si>
 </sst>
 </file>
@@ -505,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:M28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +509,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -567,7 +559,7 @@
         <v>13</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L27" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
+        <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -804,7 +796,7 @@
         <v>13</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L27" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
+        <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1040,7 +1032,7 @@
         <v>13</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L27" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
+        <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1215,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1226,7 +1218,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -1288,7 +1280,7 @@
         <v>13</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P27" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
+        <f t="shared" ref="P3:P21" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
         <v>0</v>
       </c>
     </row>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\Github\1AB\1AB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/1AB/1AB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCA0849-8D95-4177-8758-69C1CE4C95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{0FCA0849-8D95-4177-8758-69C1CE4C95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{020E3F45-7668-48CD-8098-A990DB6507DD}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1207,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1270,33 +1270,45 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="P2">
         <f>IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="P3">
         <f t="shared" ref="P3:P21" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="P5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1306,51 +1318,69 @@
       <c r="A6" t="s">
         <v>16</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="P11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1360,90 +1390,120 @@
       <c r="A12" t="s">
         <v>22</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
       <c r="P16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/1AB/1AB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{0FCA0849-8D95-4177-8758-69C1CE4C95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{020E3F45-7668-48CD-8098-A990DB6507DD}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{0FCA0849-8D95-4177-8758-69C1CE4C95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3638ED6-5400-488B-B3AB-30365CC63EB8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,102 +30,102 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
   <si>
+    <t>Alumnos</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>Resultados</t>
+  </si>
+  <si>
+    <t>Wilfredo Junior Aponte</t>
+  </si>
+  <si>
+    <t>Aída Arrate</t>
+  </si>
+  <si>
+    <t>Daniela Baquero</t>
+  </si>
+  <si>
+    <t>Miriam Berciano</t>
+  </si>
+  <si>
+    <t>Sabela Blanco</t>
+  </si>
+  <si>
+    <t>Maily Gabriela Callejas</t>
+  </si>
+  <si>
+    <t>Manuel Canabal</t>
+  </si>
+  <si>
+    <t>Mateo Canabal</t>
+  </si>
+  <si>
+    <t>Iker Cons</t>
+  </si>
+  <si>
+    <t>Rubén Gallego</t>
+  </si>
+  <si>
+    <t>Alba Garrido</t>
+  </si>
+  <si>
+    <t>Gael González</t>
+  </si>
+  <si>
+    <t>Miguel González</t>
+  </si>
+  <si>
+    <t>Lara Meijueiro</t>
+  </si>
+  <si>
+    <t>Ángela Nieto</t>
+  </si>
+  <si>
+    <t>Diego Saint-Marc</t>
+  </si>
+  <si>
+    <t>Jimena Sartier</t>
+  </si>
+  <si>
+    <t>Joel Suárez</t>
+  </si>
+  <si>
+    <t>José Villanueva</t>
+  </si>
+  <si>
     <t>Alumnos 1º AB</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>S8</t>
-  </si>
-  <si>
-    <t>S9</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>Resultados</t>
-  </si>
-  <si>
-    <t>Wilfredo Junior Aponte</t>
-  </si>
-  <si>
-    <t>Aída Arrate</t>
-  </si>
-  <si>
-    <t>Daniela Baquero</t>
-  </si>
-  <si>
-    <t>Miriam Berciano</t>
-  </si>
-  <si>
-    <t>Sabela Blanco</t>
-  </si>
-  <si>
-    <t>Maily Gabriela Callejas</t>
-  </si>
-  <si>
-    <t>Manuel Canabal</t>
-  </si>
-  <si>
-    <t>Mateo Canabal</t>
-  </si>
-  <si>
-    <t>Iker Cons</t>
-  </si>
-  <si>
-    <t>HIba El Amri</t>
-  </si>
-  <si>
-    <t>Rubén Gallego</t>
-  </si>
-  <si>
-    <t>Alba Garrido</t>
-  </si>
-  <si>
-    <t>Gael González</t>
-  </si>
-  <si>
-    <t>Miguel González</t>
-  </si>
-  <si>
-    <t>Lara Meijueiro</t>
-  </si>
-  <si>
-    <t>Ángela Nieto</t>
-  </si>
-  <si>
-    <t>Diego Saint-Marc</t>
-  </si>
-  <si>
-    <t>Jimena Sartier</t>
-  </si>
-  <si>
-    <t>Joel Suárez</t>
-  </si>
-  <si>
-    <t>José Villanueva</t>
-  </si>
-  <si>
     <t>Alumnos 1ºAB</t>
   </si>
   <si>
@@ -171,7 +171,7 @@
     <t>T14</t>
   </si>
   <si>
-    <t>Alumnos</t>
+    <t>Hiba El Amri</t>
   </si>
 </sst>
 </file>
@@ -213,8 +213,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -230,6 +231,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,7 +503,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +514,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -549,86 +554,146 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
@@ -637,79 +702,133 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
@@ -718,11 +837,17 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -735,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A2E164-804C-4A26-8EDD-0B1C83E35910}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:M30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,7 +871,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -786,6 +911,12 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
         <v>0</v>
@@ -795,77 +926,131 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
@@ -874,34 +1059,58 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
@@ -910,25 +1119,43 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
@@ -937,16 +1164,28 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
@@ -955,7 +1194,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
@@ -972,7 +1217,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:L31"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1022,167 +1267,224 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
@@ -1191,11 +1493,14 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1205,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1218,7 +1523,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -1273,6 +1578,9 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="P2">
         <f>IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
         <v>100</v>
@@ -1285,6 +1593,9 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="P3">
         <f t="shared" ref="P3:P21" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
         <v>100</v>
@@ -1297,6 +1608,9 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="P4">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1309,9 +1623,12 @@
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1321,6 +1638,9 @@
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="P6">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1333,6 +1653,9 @@
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="P7">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1345,6 +1668,9 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="P8">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1357,6 +1683,9 @@
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="P9">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1369,6 +1698,9 @@
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="P10">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1376,21 +1708,27 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
       <c r="P12">
@@ -1400,9 +1738,12 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
       <c r="P13">
@@ -1412,9 +1753,12 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
       <c r="P14">
@@ -1424,9 +1768,12 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
       <c r="P15">
@@ -1436,9 +1783,12 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
       <c r="P16">
@@ -1448,9 +1798,12 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
       <c r="P17">
@@ -1460,9 +1813,12 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
       <c r="P18">
@@ -1472,9 +1828,12 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>1</v>
       </c>
       <c r="P19">
@@ -1484,29 +1843,39 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
       <c r="P21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/1AB/1AB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{0FCA0849-8D95-4177-8758-69C1CE4C95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3638ED6-5400-488B-B3AB-30365CC63EB8}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{0FCA0849-8D95-4177-8758-69C1CE4C95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F5DE5D5-8534-4D0D-B122-611093B34CA9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -213,9 +213,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,13 +505,13 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -565,7 +564,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -580,7 +579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -595,7 +594,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -610,7 +609,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -625,7 +624,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -640,7 +639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -655,7 +654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -670,7 +669,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -685,7 +684,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -700,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -715,7 +714,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -730,7 +729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -745,7 +744,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -760,7 +759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -775,7 +774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -790,7 +789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -805,7 +804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -820,7 +819,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -835,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -864,12 +863,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -907,7 +906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -922,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -937,7 +936,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -952,7 +951,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -967,7 +966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -982,7 +981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -997,7 +996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1012,7 +1011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1027,7 +1026,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1042,7 +1041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1057,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1072,7 +1071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1087,7 +1086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1102,7 +1101,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1117,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1132,7 +1131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1147,7 +1146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1162,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1177,7 +1176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1192,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1220,12 +1219,12 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1263,7 +1262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1275,7 +1274,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1287,7 +1286,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1299,7 +1298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1311,7 +1310,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1323,7 +1322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1335,7 +1334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1347,7 +1346,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1359,7 +1358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1371,7 +1370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1383,7 +1382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1395,7 +1394,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1407,7 +1406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1419,7 +1418,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1431,7 +1430,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1443,7 +1442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1455,7 +1454,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1467,7 +1466,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1479,7 +1478,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1491,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1510,18 +1509,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1581,12 +1580,15 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="P2">
         <f>IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1596,12 +1598,15 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="P3">
         <f t="shared" ref="P3:P21" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1611,12 +1616,15 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="P4">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1626,12 +1634,15 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1641,12 +1652,15 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
       <c r="P6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1656,12 +1670,15 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="P7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1671,12 +1688,15 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
       <c r="P8">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1686,12 +1706,15 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="P9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1701,12 +1724,15 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1716,12 +1742,15 @@
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1731,12 +1760,15 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="P12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1746,12 +1778,15 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1761,12 +1796,15 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="P14">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1776,12 +1814,15 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
       <c r="P15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1791,12 +1832,15 @@
       <c r="C16">
         <v>1</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="P16">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1806,12 +1850,15 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="P17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1821,12 +1868,15 @@
       <c r="C18">
         <v>1</v>
       </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="P18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1836,12 +1886,15 @@
       <c r="C19">
         <v>1</v>
       </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
       <c r="P19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1851,12 +1904,15 @@
       <c r="C20">
         <v>0</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1866,13 +1922,13 @@
       <c r="C21">
         <v>1</v>
       </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
       <c r="P21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/1AB/1AB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{0FCA0849-8D95-4177-8758-69C1CE4C95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F5DE5D5-8534-4D0D-B122-611093B34CA9}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{0FCA0849-8D95-4177-8758-69C1CE4C95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32D303D4-ADC5-4746-A8CB-E5C9956FAC7D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -233,6 +233,14 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -501,17 +509,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -559,12 +567,15 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -573,13 +584,16 @@
       </c>
       <c r="C3">
         <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -589,12 +603,15 @@
       <c r="C4">
         <v>0</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -604,12 +621,15 @@
       <c r="C5">
         <v>0</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -619,12 +639,15 @@
       <c r="C6">
         <v>0</v>
       </c>
+      <c r="D6">
+        <v>0.8</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -634,12 +657,15 @@
       <c r="C7">
         <v>0</v>
       </c>
+      <c r="D7">
+        <v>0.8</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -649,12 +675,15 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -664,12 +693,15 @@
       <c r="C9">
         <v>0</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -679,12 +711,15 @@
       <c r="C10">
         <v>0</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -694,12 +729,15 @@
       <c r="C11">
         <v>0</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -709,12 +747,15 @@
       <c r="C12">
         <v>0</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -724,12 +765,15 @@
       <c r="C13">
         <v>0</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -739,12 +783,15 @@
       <c r="C14">
         <v>0</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -754,12 +801,15 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -769,12 +819,15 @@
       <c r="C16">
         <v>0</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -784,12 +837,15 @@
       <c r="C17">
         <v>0</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -799,12 +855,15 @@
       <c r="C18">
         <v>1</v>
       </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -814,12 +873,15 @@
       <c r="C19">
         <v>0</v>
       </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -829,12 +891,15 @@
       <c r="C20">
         <v>0</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -844,9 +909,12 @@
       <c r="C21">
         <v>1</v>
       </c>
+      <c r="D21">
+        <v>0.8</v>
+      </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
   </sheetData>
@@ -860,15 +928,15 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -906,7 +974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -916,12 +984,15 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -931,12 +1002,15 @@
       <c r="C3">
         <v>0</v>
       </c>
+      <c r="D3">
+        <v>0.6</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -946,12 +1020,15 @@
       <c r="C4">
         <v>0</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -961,12 +1038,15 @@
       <c r="C5">
         <v>0</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -976,12 +1056,15 @@
       <c r="C6">
         <v>0</v>
       </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -991,12 +1074,15 @@
       <c r="C7">
         <v>0</v>
       </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1006,12 +1092,15 @@
       <c r="C8">
         <v>0</v>
       </c>
+      <c r="D8">
+        <v>0.7</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1021,12 +1110,15 @@
       <c r="C9">
         <v>0</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1036,12 +1128,15 @@
       <c r="C10">
         <v>0</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1051,12 +1146,15 @@
       <c r="C11">
         <v>0</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1066,12 +1164,15 @@
       <c r="C12">
         <v>0</v>
       </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1081,12 +1182,15 @@
       <c r="C13">
         <v>0</v>
       </c>
+      <c r="D13">
+        <v>0.6</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1096,12 +1200,15 @@
       <c r="C14">
         <v>0</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1111,12 +1218,15 @@
       <c r="C15">
         <v>0</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1126,12 +1236,15 @@
       <c r="C16">
         <v>0</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1141,12 +1254,15 @@
       <c r="C17">
         <v>0</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1156,12 +1272,15 @@
       <c r="C18">
         <v>0</v>
       </c>
+      <c r="D18">
+        <v>0.7</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <v>23.333333333333332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1171,12 +1290,15 @@
       <c r="C19">
         <v>0</v>
       </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1186,12 +1308,15 @@
       <c r="C20">
         <v>0</v>
       </c>
+      <c r="D20">
+        <v>0.8</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1201,9 +1326,12 @@
       <c r="C21">
         <v>0</v>
       </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
   </sheetData>
@@ -1216,15 +1344,15 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1262,239 +1390,299 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="C15">
+        <v>0.8</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>1</v>
       </c>
       <c r="L21">
@@ -1511,16 +1699,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1583,12 +1771,15 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
       <c r="P2">
         <f>IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1601,12 +1792,15 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="P3">
         <f t="shared" ref="P3:P21" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1619,12 +1813,15 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
       <c r="P4">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1637,12 +1834,15 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1655,12 +1855,15 @@
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="P6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1673,12 +1876,15 @@
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="P7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1691,12 +1897,15 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="P8">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1709,12 +1918,15 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="P9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1727,12 +1939,15 @@
       <c r="D10">
         <v>0</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1745,12 +1960,15 @@
       <c r="D11">
         <v>0</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1763,12 +1981,15 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
       <c r="P12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1781,12 +2002,15 @@
       <c r="D13">
         <v>0</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1799,12 +2023,15 @@
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
       <c r="P14">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1817,12 +2044,15 @@
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
       <c r="P15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1835,12 +2065,15 @@
       <c r="D16">
         <v>1</v>
       </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
       <c r="P16">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1853,12 +2086,15 @@
       <c r="D17">
         <v>1</v>
       </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
       <c r="P17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1871,12 +2107,15 @@
       <c r="D18">
         <v>1</v>
       </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
       <c r="P18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1889,12 +2128,15 @@
       <c r="D19">
         <v>1</v>
       </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
       <c r="P19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1907,12 +2149,15 @@
       <c r="D20">
         <v>1</v>
       </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1925,9 +2170,12 @@
       <c r="D21">
         <v>1</v>
       </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/1AB/1AB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{0FCA0849-8D95-4177-8758-69C1CE4C95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32D303D4-ADC5-4746-A8CB-E5C9956FAC7D}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{0FCA0849-8D95-4177-8758-69C1CE4C95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0303A4D6-7184-41AA-B1ED-713B1ADFD32A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -241,6 +241,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -509,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,9 +574,12 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>33.333333333333329</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -588,9 +595,12 @@
       <c r="D3">
         <v>0.5</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>50</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -606,9 +616,12 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -624,9 +637,12 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -642,9 +658,12 @@
       <c r="D6">
         <v>0.8</v>
       </c>
+      <c r="E6">
+        <v>0.8</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -678,6 +697,9 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -696,9 +718,12 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -714,9 +739,12 @@
       <c r="D10">
         <v>0</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -732,6 +760,9 @@
       <c r="D11">
         <v>0</v>
       </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -750,9 +781,12 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -768,9 +802,12 @@
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -786,9 +823,12 @@
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -804,6 +844,9 @@
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -822,9 +865,12 @@
       <c r="D16">
         <v>1</v>
       </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -840,9 +886,12 @@
       <c r="D17">
         <v>1</v>
       </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -858,6 +907,9 @@
       <c r="D18">
         <v>1</v>
       </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -876,9 +928,12 @@
       <c r="D19">
         <v>1</v>
       </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -894,9 +949,12 @@
       <c r="D20">
         <v>1</v>
       </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -912,9 +970,12 @@
       <c r="D21">
         <v>0.8</v>
       </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -928,7 +989,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,9 +1048,12 @@
       <c r="D2">
         <v>0.5</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>16.666666666666664</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1005,9 +1069,12 @@
       <c r="D3">
         <v>0.6</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>53.333333333333336</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1023,9 +1090,12 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1041,9 +1111,12 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1059,9 +1132,12 @@
       <c r="D6">
         <v>0.5</v>
       </c>
+      <c r="E6">
+        <v>0.8</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>57.499999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1095,9 +1171,12 @@
       <c r="D8">
         <v>0.7</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>56.666666666666664</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1113,9 +1192,12 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1131,9 +1213,12 @@
       <c r="D10">
         <v>0</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1149,6 +1234,9 @@
       <c r="D11">
         <v>0</v>
       </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1167,6 +1255,9 @@
       <c r="D12">
         <v>0.5</v>
       </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1185,9 +1276,12 @@
       <c r="D13">
         <v>0.6</v>
       </c>
+      <c r="E13">
+        <v>0.8</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>53.333333333333336</v>
+        <v>60.000000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1203,9 +1297,12 @@
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1221,9 +1318,12 @@
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1239,9 +1339,12 @@
       <c r="D16">
         <v>1</v>
       </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1257,9 +1360,12 @@
       <c r="D17">
         <v>1</v>
       </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1275,9 +1381,12 @@
       <c r="D18">
         <v>0.7</v>
       </c>
+      <c r="E18">
+        <v>0.7</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>23.333333333333332</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1293,9 +1402,12 @@
       <c r="D19">
         <v>1</v>
       </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1311,9 +1423,12 @@
       <c r="D20">
         <v>0.8</v>
       </c>
+      <c r="E20">
+        <v>0.9</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>26.666666666666668</v>
+        <v>42.500000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1329,9 +1444,12 @@
       <c r="D21">
         <v>1</v>
       </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1462,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1400,9 +1518,12 @@
       <c r="C2">
         <v>0.5</v>
       </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>75</v>
+        <v>56.666666666666664</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1415,9 +1536,12 @@
       <c r="C3">
         <v>0.5</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L21" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>75</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1430,6 +1554,9 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1445,6 +1572,9 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1460,9 +1590,12 @@
       <c r="C6">
         <v>0.5</v>
       </c>
+      <c r="D6">
+        <v>0.6</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1490,6 +1623,9 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1505,6 +1641,9 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1520,6 +1659,9 @@
       <c r="C10">
         <v>0</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1535,9 +1677,12 @@
       <c r="C11">
         <v>0</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1550,9 +1695,12 @@
       <c r="C12">
         <v>0.5</v>
       </c>
+      <c r="D12">
+        <v>0.4</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1565,9 +1713,12 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="D13">
+        <v>0.8</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1580,6 +1731,9 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1595,9 +1749,12 @@
       <c r="C15">
         <v>0.8</v>
       </c>
+      <c r="D15">
+        <v>0.8</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1610,6 +1767,9 @@
       <c r="C16">
         <v>1</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1625,6 +1785,9 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1640,9 +1803,12 @@
       <c r="C18">
         <v>1</v>
       </c>
+      <c r="D18">
+        <v>0.8</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1655,6 +1821,9 @@
       <c r="C19">
         <v>1</v>
       </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1670,6 +1839,9 @@
       <c r="C20">
         <v>1</v>
       </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1683,6 +1855,9 @@
         <v>1</v>
       </c>
       <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>1</v>
       </c>
       <c r="L21">
@@ -1699,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/1AB/1AB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{0FCA0849-8D95-4177-8758-69C1CE4C95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0303A4D6-7184-41AA-B1ED-713B1ADFD32A}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{0FCA0849-8D95-4177-8758-69C1CE4C95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06ACED77-8036-0C40-9E7D-1B2412E142B5}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -230,22 +241,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -517,13 +512,13 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.92578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -582,7 +577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -603,7 +598,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -624,7 +619,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -645,7 +640,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -666,7 +661,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -684,7 +679,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -705,7 +700,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -726,7 +721,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -747,7 +742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -768,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -789,7 +784,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -810,7 +805,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -831,7 +826,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -852,7 +847,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -873,7 +868,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -894,7 +889,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -915,7 +910,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -936,7 +931,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -957,7 +952,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -992,12 +987,12 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.92578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1035,7 +1030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1056,7 +1051,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1077,7 +1072,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1098,7 +1093,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1119,7 +1114,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1140,7 +1135,7 @@
         <v>57.499999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1158,7 +1153,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1179,7 +1174,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1200,7 +1195,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1221,7 +1216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1242,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1263,7 +1258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1284,7 +1279,7 @@
         <v>60.000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1305,7 +1300,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1326,7 +1321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1347,7 +1342,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1368,7 +1363,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1389,7 +1384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1410,7 +1405,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1431,7 +1426,7 @@
         <v>42.500000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1461,16 +1456,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE015ABD-4175-4D18-A09E-4C4A7888DCD3}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.92578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1508,7 +1503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1526,7 +1521,7 @@
         <v>56.666666666666664</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1544,7 +1539,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1557,12 +1552,15 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1575,12 +1573,15 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1613,7 +1614,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1626,12 +1627,15 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1644,12 +1648,15 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1662,12 +1669,15 @@
       <c r="D10">
         <v>0</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1680,12 +1690,15 @@
       <c r="D11">
         <v>0</v>
       </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1703,7 +1716,7 @@
         <v>63.333333333333329</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1716,12 +1729,15 @@
       <c r="D13">
         <v>0.8</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1734,12 +1750,15 @@
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1757,7 +1776,7 @@
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1770,12 +1789,15 @@
       <c r="D16">
         <v>1</v>
       </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1793,7 +1815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1806,12 +1828,15 @@
       <c r="D18">
         <v>0.8</v>
       </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1824,12 +1849,15 @@
       <c r="D19">
         <v>1</v>
       </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1842,12 +1870,15 @@
       <c r="D20">
         <v>0.5</v>
       </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1858,6 +1889,9 @@
         <v>1</v>
       </c>
       <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>1</v>
       </c>
       <c r="L21">
@@ -1874,16 +1908,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.04296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1933,7 +1967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1954,7 +1988,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1975,7 +2009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1996,7 +2030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2017,7 +2051,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2038,7 +2072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2059,7 +2093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2080,7 +2114,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2101,7 +2135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2122,7 +2156,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -2143,7 +2177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2164,7 +2198,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2185,7 +2219,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2206,7 +2240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2227,7 +2261,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2248,7 +2282,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2269,7 +2303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2290,7 +2324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2311,7 +2345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -2332,7 +2366,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/1AB/1AB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{0FCA0849-8D95-4177-8758-69C1CE4C95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06ACED77-8036-0C40-9E7D-1B2412E142B5}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{0FCA0849-8D95-4177-8758-69C1CE4C95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6345BCA5-0681-5B44-A11C-C106B3AA09A0}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -614,9 +614,12 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -635,9 +638,12 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -695,6 +701,9 @@
       <c r="E8">
         <v>1</v>
       </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -737,9 +746,12 @@
       <c r="E10">
         <v>0</v>
       </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -842,6 +854,9 @@
       <c r="E15">
         <v>1</v>
       </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -884,9 +899,12 @@
       <c r="E17">
         <v>1</v>
       </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -983,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A2E164-804C-4A26-8EDD-0B1C83E35910}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1130,9 +1148,12 @@
       <c r="E6">
         <v>0.8</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>57.499999999999993</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1190,9 +1211,12 @@
       <c r="E9">
         <v>1</v>
       </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1253,9 +1277,12 @@
       <c r="E12">
         <v>0.5</v>
       </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1379,9 +1406,12 @@
       <c r="E18">
         <v>0.7</v>
       </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>27.999999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1456,7 +1486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE015ABD-4175-4D18-A09E-4C4A7888DCD3}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/1AB/1AB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{0FCA0849-8D95-4177-8758-69C1CE4C95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6345BCA5-0681-5B44-A11C-C106B3AA09A0}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{0FCA0849-8D95-4177-8758-69C1CE4C95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEF251AD-A0E2-3346-9499-5B0A2222CBA1}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A2E164-804C-4A26-8EDD-0B1C83E35910}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1151,9 +1151,12 @@
       <c r="F6">
         <v>0</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>38.333333333333329</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1280,9 +1283,12 @@
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1343,9 +1349,12 @@
       <c r="E15">
         <v>1</v>
       </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
